--- a/Documentation/Risk_List.xlsx
+++ b/Documentation/Risk_List.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\brdsb\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98913A-172B-4F6C-AE06-703C386E7568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
     <sheet name="Risk_Tracking_Log" sheetId="2" r:id="rId2"/>
     <sheet name="DropDown_Elements" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Priority" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Instructions!$A$24:$B$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Risk_Tracking_Log!$B$6:$D$6</definedName>
     <definedName name="as">[1]DropDown_Elements!$A$2:$A$30</definedName>
     <definedName name="OLE_LINK1" localSheetId="1">Risk_Tracking_Log!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Risk_Tracking_Log!$A$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Risk_Tracking_Log!$A$1:$N$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Risk_Tracking_Log!$1:$6</definedName>
     <definedName name="Risk_Area">DropDown_Elements!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,13 +36,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>eze3</author>
     <author>e</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -380,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -425,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -447,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -469,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -491,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -513,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="N6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -563,7 +558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="197">
   <si>
     <t>ID</t>
   </si>
@@ -1469,11 +1464,23 @@
   <si>
     <t>Chosen technology stack has a too high cost to implement when standing up final product. This would mean that the final product cannot be delivered to the client or provide the services expected, making the project a failure. Investigating and identifying appropriate hosting solutions is therefore a neccesary part of the planning phase of this project in order to avoid this.</t>
   </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -1600,7 +1607,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2056,11 +2063,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2302,14 +2322,29 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2774,14 +2809,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2796,11 +2831,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="str">
+      <c r="A1" s="84" t="str">
         <f>Risk_Tracking_Log!A1</f>
         <v>RISK MANAGEMENT LOG</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="85"/>
     </row>
     <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
@@ -2973,11 +3008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2991,13 +3026,13 @@
     <col min="8" max="8" width="22.140625" style="48" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="30.85546875" style="48" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="30.85546875" style="48" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="6" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="14" width="30.85546875" style="48" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="4"/>
+    <col min="16" max="16" width="6" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -3015,8 +3050,9 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -3048,8 +3084,9 @@
       <c r="S2" s="65"/>
       <c r="T2" s="65"/>
       <c r="U2" s="65"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="65"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>77</v>
       </c>
@@ -3081,8 +3118,9 @@
       <c r="S3" s="65"/>
       <c r="T3" s="65"/>
       <c r="U3" s="65"/>
-    </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="65"/>
+    </row>
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3114,14 +3152,15 @@
       <c r="S4" s="65"/>
       <c r="T4" s="65"/>
       <c r="U4" s="65"/>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="65"/>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="83" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="51"/>
@@ -3138,8 +3177,8 @@
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="65"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="65"/>
       <c r="P5" s="65"/>
       <c r="Q5" s="65"/>
@@ -3147,8 +3186,9 @@
       <c r="S5" s="65"/>
       <c r="T5" s="65"/>
       <c r="U5" s="65"/>
-    </row>
-    <row r="6" spans="1:21" s="3" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="65"/>
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>0</v>
       </c>
@@ -3185,11 +3225,14 @@
       <c r="L6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>85</v>
       </c>
@@ -3227,11 +3270,14 @@
       <c r="L7" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>163</v>
       </c>
@@ -3269,11 +3315,14 @@
       <c r="L8" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>164</v>
       </c>
@@ -3311,11 +3360,14 @@
       <c r="L9" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="45" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>165</v>
       </c>
@@ -3353,11 +3405,14 @@
       <c r="L10" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="45" t="s">
+      <c r="M10" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="45" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>166</v>
       </c>
@@ -3395,11 +3450,14 @@
       <c r="L11" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N11" s="45" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="146.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="146.25" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>167</v>
       </c>
@@ -3437,11 +3495,14 @@
       <c r="L12" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N12" s="45" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>168</v>
       </c>
@@ -3479,11 +3540,14 @@
       <c r="L13" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N13" s="45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>169</v>
       </c>
@@ -3521,11 +3585,14 @@
       <c r="L14" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="M14" s="45" t="s">
+      <c r="M14" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="N14" s="45" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>170</v>
       </c>
@@ -3563,11 +3630,14 @@
       <c r="L15" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="N15" s="45" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>171</v>
       </c>
@@ -3605,11 +3675,14 @@
       <c r="L16" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M16" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="N16" s="45" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>172</v>
       </c>
@@ -3647,11 +3720,14 @@
       <c r="L17" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="M17" s="45" t="s">
+      <c r="M17" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N17" s="45" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>173</v>
       </c>
@@ -3689,11 +3765,14 @@
       <c r="L18" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="N18" s="45" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>174</v>
       </c>
@@ -3731,11 +3810,14 @@
       <c r="L19" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="N19" s="45" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>175</v>
       </c>
@@ -3773,11 +3855,14 @@
       <c r="L20" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="M20" s="45" t="s">
+      <c r="M20" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="45" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>185</v>
       </c>
@@ -3815,11 +3900,14 @@
       <c r="L21" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="M21" s="45" t="s">
+      <c r="M21" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="N21" s="45" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="14"/>
       <c r="C22" s="27"/>
@@ -3835,9 +3923,10 @@
       <c r="J22" s="62"/>
       <c r="K22" s="72"/>
       <c r="L22" s="78"/>
-      <c r="M22" s="45"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="89"/>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="14"/>
       <c r="C23" s="27"/>
@@ -3853,9 +3942,10 @@
       <c r="J23" s="62"/>
       <c r="K23" s="72"/>
       <c r="L23" s="78"/>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="89"/>
+      <c r="N23" s="45"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="14"/>
       <c r="C24" s="27"/>
@@ -3871,9 +3961,10 @@
       <c r="J24" s="62"/>
       <c r="K24" s="72"/>
       <c r="L24" s="78"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="89"/>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="14"/>
       <c r="C25" s="27"/>
@@ -3889,9 +3980,10 @@
       <c r="J25" s="62"/>
       <c r="K25" s="72"/>
       <c r="L25" s="78"/>
-      <c r="M25" s="45"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="89"/>
+      <c r="N25" s="45"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="14"/>
       <c r="C26" s="27"/>
@@ -3907,9 +3999,10 @@
       <c r="J26" s="62"/>
       <c r="K26" s="72"/>
       <c r="L26" s="78"/>
-      <c r="M26" s="45"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="89"/>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="14"/>
       <c r="C27" s="27"/>
@@ -3925,9 +4018,10 @@
       <c r="J27" s="62"/>
       <c r="K27" s="72"/>
       <c r="L27" s="78"/>
-      <c r="M27" s="45"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="89"/>
+      <c r="N27" s="45"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="14"/>
       <c r="C28" s="27"/>
@@ -3943,9 +4037,10 @@
       <c r="J28" s="62"/>
       <c r="K28" s="72"/>
       <c r="L28" s="78"/>
-      <c r="M28" s="45"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="89"/>
+      <c r="N28" s="45"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="14"/>
       <c r="C29" s="27"/>
@@ -3961,9 +4056,10 @@
       <c r="J29" s="62"/>
       <c r="K29" s="72"/>
       <c r="L29" s="78"/>
-      <c r="M29" s="45"/>
-    </row>
-    <row r="30" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="89"/>
+      <c r="N29" s="45"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="15"/>
       <c r="C30" s="59"/>
@@ -3979,10 +4075,11 @@
       <c r="J30" s="69"/>
       <c r="K30" s="71"/>
       <c r="L30" s="82"/>
-      <c r="M30" s="47"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:D6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="B6:D6"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C31:E65531 C1:E1 B6:C6 B7:B30">
     <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
@@ -3995,7 +4092,7 @@
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L30">
+  <conditionalFormatting sqref="L7:M30">
     <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
@@ -4026,16 +4123,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D30">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H30" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H30">
       <formula1>Risk_Area</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B30" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B30">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K30" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K30">
       <formula1>"Acceptance,Avoidance,Contingency,Mitigation,Transfer"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4049,7 +4146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4166,4 +4263,16 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Risk_List.xlsx
+++ b/Documentation/Risk_List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brdsb\ResourceManager\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C6FA8-6696-4FB3-85D9-AB8C8B1C5C57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -24,11 +30,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Risk_Tracking_Log!$1:$6</definedName>
     <definedName name="Risk_Area">DropDown_Elements!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,13 +43,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>eze3</author>
     <author>e</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1">
+    <comment ref="E6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -375,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -398,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="1">
+    <comment ref="G6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -420,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1">
+    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -464,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1">
+    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="1">
+    <comment ref="K6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -508,7 +515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -531,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="1">
+    <comment ref="N6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -558,7 +565,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="198">
   <si>
     <t>ID</t>
   </si>
@@ -1111,15 +1118,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Project Sponsor withdraws support for the project. As this project is being done for an external sponsor, it is possible that during the course of development the sponsor may decide that they no longer wish to make use of the final product. This will not neccesarily impact the project being completed however it may impact other areas of the development process.</t>
-  </si>
-  <si>
-    <t>Team members leave the project team. As this project is being done by a small team, the possibility of one of the team members leaving the project/subject/course may have a serious impact on the overall project and the work done by other team members. This is an unlikely possibility however it is possible to plan work to avoid this from being an issue that would prevent the project from being completed.</t>
-  </si>
-  <si>
-    <t>Final product is rejected by the project sponsor. If the final product is not up to the quality expected by the project sponsor then it may be rejected for use. As this project serves both the purpose of providing a product for the sponsor and as an assessment item this will not neccesarily make the project a failure however it would be considered a very negative outcome. Communication with the sponsor and effective planning to ensure the product meets the expectations of the sponsor will offset this risk.</t>
-  </si>
-  <si>
     <t>The final product is unable to ensure the security of user information and prevent unauthorised users from gaining access. Due to this project being intended for use in a corporate environment a lack of adequete security ould pose a risk of sensitive employee information being exposed to unauthorised users. This can be managed through ensureing appropriate security features are properly assessed and implemented.</t>
   </si>
   <si>
@@ -1128,9 +1126,6 @@
   </si>
   <si>
     <t>If the Sponsor pulls out of the project, this may leave the team without a clear picture of the requirements of the project or the overall goal. Due to this project also serving as an assessment item this will not however result in the cancellation of the project or prevent the team from completing the project.</t>
-  </si>
-  <si>
-    <t>Final product is incompatible with the clients systems, either in terms of operating system or primary devices. According to the project requirements, this project should be compatible with desktop and laptop computers, and accesible without access to the company's network. There is a possibility that the final product does not meet these requirements, which can be mitigated by assessing the capabilities of the technologies used by the team and selecting technologies which are known to be meet these requirements.</t>
   </si>
   <si>
     <t>Product is incapable of providing needed functionality to the client (including ability to adequetly track user skills, identify skills needed for projects, or match users to projects based on their skills). This could be due to a failure to properly implement these features properly by the project team, or due to the technologies used not being able to provide these features, in both cases this would represent a failure to deliver the expected service to the sponsor. This can be mitigated by properly establishing the project requirements and selecting technologies that can deliver the services required.</t>
@@ -1395,96 +1390,133 @@
     <t xml:space="preserve">Ensure communication with the sponsor to ensure that the project requirements are understood and that expectations for the final product are understood. </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ensure that product and associated documentation is produced that meets assessment requirements to fulfil the assessment component of this project. </t>
+    <t xml:space="preserve">Plan work items and milestones so that each team member is capable of taking up additional work if this scenario does occur. Ensure that work done is understandable by all other team members to allow them to pick up where others left off. </t>
+  </si>
+  <si>
+    <t>Project team willl be required to invest their own money</t>
+  </si>
+  <si>
+    <t>Free hosted solutions are not viable</t>
+  </si>
+  <si>
+    <t>Hosting service does not meet performance requirement</t>
+  </si>
+  <si>
+    <t>ensure that one of the free technologies will meet the needs of the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate free hosting solutions early  </t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Conflicts between team members cause disruptions/delays in reaching project goals. If conflict arises between team members as to how a certain feature should be implemented or how development of the project should proceed, then this may cause delays in completing work items by the deadlines set. To avoid this team members should be aware of each other's roles and responsibilities and follow conflict resolution procedures as outlined in the team charter.</t>
+  </si>
+  <si>
+    <t>Disputes may result in delays in project work which may be compounded if team members do not follow appropriate conflict resolution procedures.</t>
+  </si>
+  <si>
+    <t>Conflict arises between team members which causes delays in achieving work items.</t>
+  </si>
+  <si>
+    <t>Deadline for work items is not met due to conflict.</t>
+  </si>
+  <si>
+    <t>Conflict resolution procedures are outlined in the team charter.</t>
+  </si>
+  <si>
+    <t>Expand team discussions to investigate further options for moving the project forward/reassess current work item objectives.</t>
+  </si>
+  <si>
+    <t>Chosen technology stack has a too high cost to implement when standing up final product. This would mean that the final product cannot be delivered to the client or provide the services expected, making the project a failure. Investigating and identifying appropriate hosting solutions is therefore a neccesary part of the planning phase of this project in order to avoid this.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Team must be able to adapt work plans and milestones to account for changes in team structure. or reduce scope in negotiation with the sponsor where possible to deliver a minimum viable product</t>
+  </si>
+  <si>
+    <t>Ensure that product and associated documentation is produced that meets assessment requirements to fulfil the assessment component of this project. As well as gaining feedback iteratively from the sponsor to ensure that their requirements are being met</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final product is rejected by the project sponsor. If the final product is not up to the quality expected by the project sponsor then it may be rejected for use. As this project serves both the purpose of providing a product for the sponsor and as an assessment item this will not neccesarily make the project a failure however it would be considered a very negative outcome. Communication with the sponsor and effective planning to ensure the product meets the expectations of the sponsor will offset this risk. </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>As well as gaining feedback iteratively from the sponsor to ensure that their requirements are being met</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan work items and milestones so that each team member is capable of taking up additional work if this scenario does occur. Ensure that work done is understandable by all other team members to allow them to pick up where others left off. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Team must be able to adapt work plans and milestones to account for changes in team structure. </t>
+      <t>Closed as Sponsor has given final approval</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final product is incompatible with the clients systems, either in terms of operating system or primary devices. According to the project requirements, this project should be compatible with desktop and laptop computers, and accesible without access to the company's network. There is a possibility that the final product does not meet these requirements, which can be mitigated by assessing the capabilities of the technologies used by the team and selecting technologies which are known to be meet these requirements. </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>or reduce scope in negotiation with the sponsor where possible to deliver a minimum viable product</t>
-    </r>
-  </si>
-  <si>
-    <t>Project team willl be required to invest their own money</t>
-  </si>
-  <si>
-    <t>Free hosted solutions are not viable</t>
-  </si>
-  <si>
-    <t>Hosting service does not meet performance requirement</t>
-  </si>
-  <si>
-    <t>ensure that one of the free technologies will meet the needs of the project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigate free hosting solutions early  </t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Conflicts between team members cause disruptions/delays in reaching project goals. If conflict arises between team members as to how a certain feature should be implemented or how development of the project should proceed, then this may cause delays in completing work items by the deadlines set. To avoid this team members should be aware of each other's roles and responsibilities and follow conflict resolution procedures as outlined in the team charter.</t>
-  </si>
-  <si>
-    <t>Disputes may result in delays in project work which may be compounded if team members do not follow appropriate conflict resolution procedures.</t>
-  </si>
-  <si>
-    <t>Conflict arises between team members which causes delays in achieving work items.</t>
-  </si>
-  <si>
-    <t>Deadline for work items is not met due to conflict.</t>
-  </si>
-  <si>
-    <t>Conflict resolution procedures are outlined in the team charter.</t>
-  </si>
-  <si>
-    <t>Expand team discussions to investigate further options for moving the project forward/reassess current work item objectives.</t>
-  </si>
-  <si>
-    <t>Chosen technology stack has a too high cost to implement when standing up final product. This would mean that the final product cannot be delivered to the client or provide the services expected, making the project a failure. Investigating and identifying appropriate hosting solutions is therefore a neccesary part of the planning phase of this project in order to avoid this.</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>medium</t>
+      <t>Closed as project has been succesfully tested on client's systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Team members leave the project team. As this project is being done by a small team, the possibility of one of the team members leaving the project/subject/course may have a serious impact on the overall project and the work done by other team members. This is an unlikely possibility however it is possible to plan work to avoid this from being an issue that would prevent the project from being completed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Closed as project has been completed with all team members</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Project Sponsor withdraws support for the project. As this project is being done for an external sponsor, it is possible that during the course of development the sponsor may decide that they no longer wish to make use of the final product. This will not neccesarily impact the project being completed however it may impact other areas of the development process. C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>losed as project sponsor has given final approval</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1574,12 +1606,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2325,26 +2351,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2809,14 +2835,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,11 +2857,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="str">
+      <c r="A1" s="89" t="str">
         <f>Risk_Tracking_Log!A1</f>
         <v>RISK MANAGEMENT LOG</v>
       </c>
-      <c r="B1" s="85"/>
+      <c r="B1" s="90"/>
     </row>
     <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
@@ -3008,11 +3034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3059,7 +3085,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="33"/>
@@ -3127,7 +3153,7 @@
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="37"/>
@@ -3161,7 +3187,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="40"/>
       <c r="D5" s="83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
@@ -3225,8 +3251,8 @@
       <c r="L6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="86" t="s">
-        <v>193</v>
+      <c r="M6" s="84" t="s">
+        <v>187</v>
       </c>
       <c r="N6" s="64" t="s">
         <v>52</v>
@@ -3256,7 +3282,7 @@
         <v>80</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I7" s="77" t="s">
         <v>81</v>
@@ -3270,19 +3296,19 @@
       <c r="L7" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="85" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="80" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>3</v>
@@ -3292,42 +3318,42 @@
       </c>
       <c r="E8" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Green</v>
+        <v>Closed</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I8" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="112.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>1</v>
@@ -3337,42 +3363,42 @@
       </c>
       <c r="E9" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Yellow</v>
+        <v>Closed</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I9" s="77" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K9" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L9" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="87" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="146.25" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>2</v>
@@ -3382,39 +3408,39 @@
       </c>
       <c r="E10" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Green</v>
+        <v>Closed</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K10" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="M10" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="87" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>9</v>
@@ -3430,39 +3456,39 @@
         <v>Yellow</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H11" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="77" t="s">
-        <v>114</v>
-      </c>
       <c r="J11" s="76" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K11" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L11" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="89" t="s">
-        <v>194</v>
+        <v>112</v>
+      </c>
+      <c r="M11" s="87" t="s">
+        <v>188</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="146.25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>1</v>
@@ -3472,39 +3498,39 @@
       </c>
       <c r="E12" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Yellow</v>
+        <v>Closed</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H12" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="77" t="s">
-        <v>130</v>
-      </c>
       <c r="J12" s="76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K12" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="M12" s="89" t="s">
-        <v>194</v>
+        <v>143</v>
+      </c>
+      <c r="M12" s="87" t="s">
+        <v>188</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>9</v>
@@ -3520,36 +3546,36 @@
         <v>Yellow</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="77" t="s">
-        <v>131</v>
-      </c>
       <c r="J13" s="76" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K13" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" s="89" t="s">
-        <v>194</v>
+        <v>144</v>
+      </c>
+      <c r="M13" s="87" t="s">
+        <v>188</v>
       </c>
       <c r="N13" s="45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>9</v>
@@ -3565,36 +3591,36 @@
         <v>Yellow</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H14" s="41" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="77" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K14" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L14" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="M14" s="89" t="s">
-        <v>195</v>
+        <v>146</v>
+      </c>
+      <c r="M14" s="87" t="s">
+        <v>189</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>9</v>
@@ -3610,36 +3636,36 @@
         <v>Green</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K15" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="89" t="s">
-        <v>196</v>
+        <v>148</v>
+      </c>
+      <c r="M15" s="87" t="s">
+        <v>190</v>
       </c>
       <c r="N15" s="45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>9</v>
@@ -3655,36 +3681,36 @@
         <v>Green</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K16" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="M16" s="89" t="s">
-        <v>196</v>
+        <v>148</v>
+      </c>
+      <c r="M16" s="87" t="s">
+        <v>190</v>
       </c>
       <c r="N16" s="45" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -3700,36 +3726,36 @@
         <v>Green</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I17" s="77" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K17" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="78" t="s">
-        <v>154</v>
-      </c>
-      <c r="M17" s="89" t="s">
-        <v>194</v>
+        <v>150</v>
+      </c>
+      <c r="M17" s="87" t="s">
+        <v>188</v>
       </c>
       <c r="N17" s="45" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>9</v>
@@ -3745,36 +3771,36 @@
         <v>Green</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I18" s="77" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K18" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L18" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="M18" s="89" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="M18" s="87" t="s">
+        <v>188</v>
       </c>
       <c r="N18" s="45" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>9</v>
@@ -3790,36 +3816,36 @@
         <v>Yellow</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G19" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="I19" s="77" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K19" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L19" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19" s="89" t="s">
-        <v>196</v>
+        <v>154</v>
+      </c>
+      <c r="M19" s="87" t="s">
+        <v>190</v>
       </c>
       <c r="N19" s="45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>9</v>
@@ -3835,36 +3861,36 @@
         <v>Green</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H20" s="41" t="s">
         <v>45</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K20" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="87" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="45" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>9</v>
@@ -3880,31 +3906,31 @@
         <v>Green</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K21" s="72" t="s">
         <v>69</v>
       </c>
       <c r="L21" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="M21" s="89" t="s">
-        <v>196</v>
-      </c>
       <c r="N21" s="45" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3923,7 +3949,7 @@
       <c r="J22" s="62"/>
       <c r="K22" s="72"/>
       <c r="L22" s="78"/>
-      <c r="M22" s="89"/>
+      <c r="M22" s="87"/>
       <c r="N22" s="45"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3942,7 +3968,7 @@
       <c r="J23" s="62"/>
       <c r="K23" s="72"/>
       <c r="L23" s="78"/>
-      <c r="M23" s="89"/>
+      <c r="M23" s="87"/>
       <c r="N23" s="45"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3961,7 +3987,7 @@
       <c r="J24" s="62"/>
       <c r="K24" s="72"/>
       <c r="L24" s="78"/>
-      <c r="M24" s="89"/>
+      <c r="M24" s="87"/>
       <c r="N24" s="45"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3980,7 +4006,7 @@
       <c r="J25" s="62"/>
       <c r="K25" s="72"/>
       <c r="L25" s="78"/>
-      <c r="M25" s="89"/>
+      <c r="M25" s="87"/>
       <c r="N25" s="45"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3999,7 +4025,7 @@
       <c r="J26" s="62"/>
       <c r="K26" s="72"/>
       <c r="L26" s="78"/>
-      <c r="M26" s="89"/>
+      <c r="M26" s="87"/>
       <c r="N26" s="45"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -4018,7 +4044,7 @@
       <c r="J27" s="62"/>
       <c r="K27" s="72"/>
       <c r="L27" s="78"/>
-      <c r="M27" s="89"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -4037,7 +4063,7 @@
       <c r="J28" s="62"/>
       <c r="K28" s="72"/>
       <c r="L28" s="78"/>
-      <c r="M28" s="89"/>
+      <c r="M28" s="87"/>
       <c r="N28" s="45"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -4056,7 +4082,7 @@
       <c r="J29" s="62"/>
       <c r="K29" s="72"/>
       <c r="L29" s="78"/>
-      <c r="M29" s="89"/>
+      <c r="M29" s="87"/>
       <c r="N29" s="45"/>
     </row>
     <row r="30" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4075,11 +4101,11 @@
       <c r="J30" s="69"/>
       <c r="K30" s="71"/>
       <c r="L30" s="82"/>
-      <c r="M30" s="90"/>
+      <c r="M30" s="88"/>
       <c r="N30" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:D6"/>
+  <autoFilter ref="B6:D6" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C31:E65531 C1:E1 B6:C6 B7:B30">
     <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
@@ -4123,16 +4149,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H30" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Risk_Area</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B30" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K30" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Acceptance,Avoidance,Contingency,Mitigation,Transfer"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4146,7 +4172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4266,7 +4292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
